--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -540,10 +540,10 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.000565</v>
+        <v>2.133443333333334</v>
       </c>
       <c r="N2">
-        <v>30.001695</v>
+        <v>6.40033</v>
       </c>
       <c r="O2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="P2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="Q2">
-        <v>91.57476701535668</v>
+        <v>19.53585384330445</v>
       </c>
       <c r="R2">
-        <v>824.17290313821</v>
+        <v>175.82268458974</v>
       </c>
       <c r="S2">
-        <v>0.6123512090853941</v>
+        <v>0.2526132124375848</v>
       </c>
       <c r="T2">
-        <v>0.6123512090853941</v>
+        <v>0.2526132124375848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>12.79438</v>
       </c>
       <c r="O3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="P3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
       <c r="Q3">
         <v>39.05253911840445</v>
@@ -632,10 +632,10 @@
         <v>351.47285206564</v>
       </c>
       <c r="S3">
-        <v>0.2611403809850739</v>
+        <v>0.5049785609409492</v>
       </c>
       <c r="T3">
-        <v>0.2611403809850738</v>
+        <v>0.5049785609409493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.567455</v>
+        <v>1.788586</v>
       </c>
       <c r="N4">
-        <v>4.702364999999999</v>
+        <v>5.365758</v>
       </c>
       <c r="O4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="P4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="Q4">
-        <v>14.35312169183</v>
+        <v>16.37800926616933</v>
       </c>
       <c r="R4">
-        <v>129.17809522647</v>
+        <v>147.402083395524</v>
       </c>
       <c r="S4">
-        <v>0.09597787369383093</v>
+        <v>0.2117799184639963</v>
       </c>
       <c r="T4">
-        <v>0.09597787369383091</v>
+        <v>0.2117799184639964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.000565</v>
+        <v>2.133443333333334</v>
       </c>
       <c r="N5">
-        <v>30.001695</v>
+        <v>6.40033</v>
       </c>
       <c r="O5">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="P5">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="Q5">
-        <v>2.883872929615</v>
+        <v>0.6172556478255558</v>
       </c>
       <c r="R5">
-        <v>25.954856366535</v>
+        <v>5.55530083043</v>
       </c>
       <c r="S5">
-        <v>0.01928416672905367</v>
+        <v>0.007981577531401177</v>
       </c>
       <c r="T5">
-        <v>0.01928416672905367</v>
+        <v>0.007981577531401175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>12.79438</v>
       </c>
       <c r="O6">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="P6">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
       <c r="Q6">
-        <v>1.229842718326667</v>
+        <v>1.233905644775556</v>
       </c>
       <c r="R6">
-        <v>11.06858446494</v>
+        <v>11.10515080298</v>
       </c>
       <c r="S6">
-        <v>0.008223833923878958</v>
+        <v>0.01595532354366237</v>
       </c>
       <c r="T6">
-        <v>0.008223833923878958</v>
+        <v>0.01595532354366237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.567455</v>
+        <v>1.788586</v>
       </c>
       <c r="N7">
-        <v>4.702364999999999</v>
+        <v>5.365758</v>
       </c>
       <c r="O7">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="P7">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="Q7">
-        <v>0.4520085658049999</v>
+        <v>0.5174802596686666</v>
       </c>
       <c r="R7">
-        <v>4.068077092245</v>
+        <v>4.657322337018</v>
       </c>
       <c r="S7">
-        <v>0.003022535582768455</v>
+        <v>0.006691407082406079</v>
       </c>
       <c r="T7">
-        <v>0.003022535582768455</v>
+        <v>0.00669140708240608</v>
       </c>
     </row>
   </sheetData>
